--- a/Industry/201612-201908/HKD/MILLION/Analysis_85_6.1.1 - Finished Products_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_85_6.1.1 - Finished Products_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1920" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -38568,6 +38569,3160 @@
     <col bestFit="1" customWidth="1" max="4" min="3" width="11"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
     <col bestFit="1" customWidth="1" max="7" min="6" width="11"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="11"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="4" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" t="n">
+        <v>587695.013</v>
+      </c>
+      <c r="D2" t="n">
+        <v>624802.777</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="F2" t="n">
+        <v>466184.869</v>
+      </c>
+      <c r="G2" t="n">
+        <v>737942.121</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18.108</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449689.609</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="n">
+        <v>186685.788</v>
+      </c>
+      <c r="D3" t="n">
+        <v>188406.496</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="F3" t="n">
+        <v>151267.251</v>
+      </c>
+      <c r="G3" t="n">
+        <v>247867.327</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.56</v>
+      </c>
+      <c r="I3" t="n">
+        <v>160205.499</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.766</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30.155</v>
+      </c>
+      <c r="M3" t="n">
+        <v>32.448</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33.589</v>
+      </c>
+      <c r="O3" t="n">
+        <v>35.626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="n">
+        <v>121793.172</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120109.095</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.383</v>
+      </c>
+      <c r="F4" t="n">
+        <v>77832.71000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>120143.829</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I4" t="n">
+        <v>67415.787</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-13.384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.724</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19.224</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16.696</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.281</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14.992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45276.289</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52099.917</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.071</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34587.072</v>
+      </c>
+      <c r="G5" t="n">
+        <v>53652.96</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.981</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30744.347</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-11.11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.704</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.339</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.419</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.271</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46177.318</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44190.042</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-4.304</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29212.738</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47524.963</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.547</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24596.703</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-15.801</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.857</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.073</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.266</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18381.07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25632.785</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39.452</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28456.942</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41246.216</v>
+      </c>
+      <c r="H7" t="n">
+        <v>60.912</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22945.747</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-19.367</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.589</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17480.878</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26695.548</v>
+      </c>
+      <c r="E8" t="n">
+        <v>52.713</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21105.967</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32120.774</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.323</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22387.689</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.273</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.353</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" t="n">
+        <v>28270.828</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30972.916</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.558</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27821.309</v>
+      </c>
+      <c r="G9" t="n">
+        <v>42055.242</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.781</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20190.889</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-27.427</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.957</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.968</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.699</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16569.593</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20875.152</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.985</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15287.586</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25996.134</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.531</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17894.768</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17.054</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.341</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.523</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14598.765</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19729.957</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35.148</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15222.381</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24819.819</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.798</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17337.827</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.897</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.484</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.363</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12055.433</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15333.319</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11613.741</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19736.814</v>
+      </c>
+      <c r="H12" t="n">
+        <v>28.718</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14283.536</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22.988</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.051</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.454</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10277.39</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11068.792</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6912.335</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10804.896</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-2.384</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9255.644</v>
+      </c>
+      <c r="J13" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8428.249</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7031.669</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-16.57</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4383.845</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7178.896</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4739.187</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.106</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6919.993</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7498.538</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5190.479</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7846.664</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.643</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4603.823</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-11.303</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6291.729</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7917.876</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.846</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5370.948</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7423.34</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-6.246</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3717.531</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-30.784</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.267</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5509.188</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5135.233</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-6.788</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3801.624</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6503.485</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26.644</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3525.767</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-7.256</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5530.803</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4915.421</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-11.126</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3511.379</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5426.666</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.401</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2917.029</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-16.926</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4118.672</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4448.423</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.006</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2975.403</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4322.966</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2827.842</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-4.959</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2036.996</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2800.374</v>
+      </c>
+      <c r="E20" t="n">
+        <v>37.476</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2241.959</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3614.834</v>
+      </c>
+      <c r="H20" t="n">
+        <v>29.084</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2427.555</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.278</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1985.202</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2279.331</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14.816</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1325.514</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2184.421</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-4.164</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1953.088</v>
+      </c>
+      <c r="J21" t="n">
+        <v>47.346</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3077.633</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3369.461</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.481999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2671.048</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3981.772</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18.172</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1926.987</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-27.857</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2949.982</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2858.43</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.103</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2040.174</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2879.233</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1605.658</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-21.298</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2842.568</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2830.154</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.437</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1735.698</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2635.898</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-6.864</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1562.111</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-10.001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2329.962</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2549.314</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.414</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1933.142</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2624.566</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1218.991</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-36.942</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" t="n">
+        <v>899.67</v>
+      </c>
+      <c r="D26" t="n">
+        <v>922.547</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="F26" t="n">
+        <v>690.639</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1160.073</v>
+      </c>
+      <c r="H26" t="n">
+        <v>25.747</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1099.69</v>
+      </c>
+      <c r="J26" t="n">
+        <v>59.228</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" t="n">
+        <v>677.332</v>
+      </c>
+      <c r="D27" t="n">
+        <v>700.557</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="F27" t="n">
+        <v>503.054</v>
+      </c>
+      <c r="G27" t="n">
+        <v>900.898</v>
+      </c>
+      <c r="H27" t="n">
+        <v>28.597</v>
+      </c>
+      <c r="I27" t="n">
+        <v>991.768</v>
+      </c>
+      <c r="J27" t="n">
+        <v>97.149</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1107.065</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1288.187</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16.361</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1047.689</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1866.879</v>
+      </c>
+      <c r="H28" t="n">
+        <v>44.923</v>
+      </c>
+      <c r="I28" t="n">
+        <v>869.028</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-17.053</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3009.008</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2430.814</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-19.215</v>
+      </c>
+      <c r="F29" t="n">
+        <v>978.595</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1537.098</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-36.766</v>
+      </c>
+      <c r="I29" t="n">
+        <v>800.9059999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-18.158</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1346.089</v>
+      </c>
+      <c r="D30" t="n">
+        <v>999.751</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-25.729</v>
+      </c>
+      <c r="F30" t="n">
+        <v>592.276</v>
+      </c>
+      <c r="G30" t="n">
+        <v>955.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-4.446</v>
+      </c>
+      <c r="I30" t="n">
+        <v>646.121</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.090999999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" t="n">
+        <v>996.537</v>
+      </c>
+      <c r="D31" t="n">
+        <v>887.76</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-10.916</v>
+      </c>
+      <c r="F31" t="n">
+        <v>370.609</v>
+      </c>
+      <c r="G31" t="n">
+        <v>627.861</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-29.276</v>
+      </c>
+      <c r="I31" t="n">
+        <v>508.519</v>
+      </c>
+      <c r="J31" t="n">
+        <v>37.212</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" t="n">
+        <v>865.375</v>
+      </c>
+      <c r="D32" t="n">
+        <v>934.12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.944</v>
+      </c>
+      <c r="F32" t="n">
+        <v>615.448</v>
+      </c>
+      <c r="G32" t="n">
+        <v>895.8630000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-4.096</v>
+      </c>
+      <c r="I32" t="n">
+        <v>503.507</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-18.189</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1479.14</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1690.287</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.275</v>
+      </c>
+      <c r="F33" t="n">
+        <v>897.393</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1316.554</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-22.111</v>
+      </c>
+      <c r="I33" t="n">
+        <v>481.468</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-46.348</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" t="n">
+        <v>412.087</v>
+      </c>
+      <c r="D34" t="n">
+        <v>404.962</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.729</v>
+      </c>
+      <c r="F34" t="n">
+        <v>324.368</v>
+      </c>
+      <c r="G34" t="n">
+        <v>518.903</v>
+      </c>
+      <c r="H34" t="n">
+        <v>28.136</v>
+      </c>
+      <c r="I34" t="n">
+        <v>368.89</v>
+      </c>
+      <c r="J34" t="n">
+        <v>13.726</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1115.559</v>
+      </c>
+      <c r="D35" t="n">
+        <v>983.897</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-11.802</v>
+      </c>
+      <c r="F35" t="n">
+        <v>598.543</v>
+      </c>
+      <c r="G35" t="n">
+        <v>779.255</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-20.799</v>
+      </c>
+      <c r="I35" t="n">
+        <v>321.547</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-46.278</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" t="n">
+        <v>561.8390000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>356.36</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-36.572</v>
+      </c>
+      <c r="F36" t="n">
+        <v>240.099</v>
+      </c>
+      <c r="G36" t="n">
+        <v>407.458</v>
+      </c>
+      <c r="H36" t="n">
+        <v>14.339</v>
+      </c>
+      <c r="I36" t="n">
+        <v>302.227</v>
+      </c>
+      <c r="J36" t="n">
+        <v>25.876</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" t="n">
+        <v>562.8869999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>547.043</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-2.815</v>
+      </c>
+      <c r="F37" t="n">
+        <v>342.931</v>
+      </c>
+      <c r="G37" t="n">
+        <v>502.557</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-8.132</v>
+      </c>
+      <c r="I37" t="n">
+        <v>299.165</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-12.762</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" t="n">
+        <v>600.75</v>
+      </c>
+      <c r="D38" t="n">
+        <v>547.605</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-8.846</v>
+      </c>
+      <c r="F38" t="n">
+        <v>283.216</v>
+      </c>
+      <c r="G38" t="n">
+        <v>403.809</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-26.259</v>
+      </c>
+      <c r="I38" t="n">
+        <v>244.659</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-13.614</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="B39" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" t="n">
+        <v>87.86799999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>153.627</v>
+      </c>
+      <c r="E39" t="n">
+        <v>74.839</v>
+      </c>
+      <c r="F39" t="n">
+        <v>118.617</v>
+      </c>
+      <c r="G39" t="n">
+        <v>289.237</v>
+      </c>
+      <c r="H39" t="n">
+        <v>88.273</v>
+      </c>
+      <c r="I39" t="n">
+        <v>214.255</v>
+      </c>
+      <c r="J39" t="n">
+        <v>80.628</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" t="n">
+        <v>176.855</v>
+      </c>
+      <c r="D40" t="n">
+        <v>147.641</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-16.519</v>
+      </c>
+      <c r="F40" t="n">
+        <v>160.529</v>
+      </c>
+      <c r="G40" t="n">
+        <v>290.983</v>
+      </c>
+      <c r="H40" t="n">
+        <v>97.08799999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>195.962</v>
+      </c>
+      <c r="J40" t="n">
+        <v>22.073</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" t="n">
+        <v>294.591</v>
+      </c>
+      <c r="D41" t="n">
+        <v>379.708</v>
+      </c>
+      <c r="E41" t="n">
+        <v>28.893</v>
+      </c>
+      <c r="F41" t="n">
+        <v>133.944</v>
+      </c>
+      <c r="G41" t="n">
+        <v>213.734</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-43.711</v>
+      </c>
+      <c r="I41" t="n">
+        <v>150.215</v>
+      </c>
+      <c r="J41" t="n">
+        <v>12.148</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" t="n">
+        <v>155.267</v>
+      </c>
+      <c r="D42" t="n">
+        <v>205.98</v>
+      </c>
+      <c r="E42" t="n">
+        <v>32.662</v>
+      </c>
+      <c r="F42" t="n">
+        <v>157.522</v>
+      </c>
+      <c r="G42" t="n">
+        <v>249.111</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20.939</v>
+      </c>
+      <c r="I42" t="n">
+        <v>129.669</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-17.682</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" t="n">
+        <v>410.603</v>
+      </c>
+      <c r="D43" t="n">
+        <v>454.837</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.773</v>
+      </c>
+      <c r="F43" t="n">
+        <v>283.968</v>
+      </c>
+      <c r="G43" t="n">
+        <v>411.132</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-9.609</v>
+      </c>
+      <c r="I43" t="n">
+        <v>123.716</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-56.433</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" t="n">
+        <v>75.43899999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>85.17700000000001</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.909</v>
+      </c>
+      <c r="F44" t="n">
+        <v>53.677</v>
+      </c>
+      <c r="G44" t="n">
+        <v>96.105</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="I44" t="n">
+        <v>123.487</v>
+      </c>
+      <c r="J44" t="n">
+        <v>130.056</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" t="n">
+        <v>234.05</v>
+      </c>
+      <c r="D45" t="n">
+        <v>216.376</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-7.551</v>
+      </c>
+      <c r="F45" t="n">
+        <v>111.019</v>
+      </c>
+      <c r="G45" t="n">
+        <v>180.329</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-16.659</v>
+      </c>
+      <c r="I45" t="n">
+        <v>122.683</v>
+      </c>
+      <c r="J45" t="n">
+        <v>10.506</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C46" t="n">
+        <v>390.589</v>
+      </c>
+      <c r="D46" t="n">
+        <v>299.43</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-23.339</v>
+      </c>
+      <c r="F46" t="n">
+        <v>144.142</v>
+      </c>
+      <c r="G46" t="n">
+        <v>215.03</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-28.187</v>
+      </c>
+      <c r="I46" t="n">
+        <v>114.601</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-20.494</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" t="n">
+        <v>218.745</v>
+      </c>
+      <c r="D47" t="n">
+        <v>238.789</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.163</v>
+      </c>
+      <c r="F47" t="n">
+        <v>139.118</v>
+      </c>
+      <c r="G47" t="n">
+        <v>201.005</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-15.823</v>
+      </c>
+      <c r="I47" t="n">
+        <v>112.513</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-19.124</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" t="n">
+        <v>351.314</v>
+      </c>
+      <c r="D48" t="n">
+        <v>124.747</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-64.491</v>
+      </c>
+      <c r="F48" t="n">
+        <v>88.977</v>
+      </c>
+      <c r="G48" t="n">
+        <v>146.993</v>
+      </c>
+      <c r="H48" t="n">
+        <v>17.833</v>
+      </c>
+      <c r="I48" t="n">
+        <v>107.609</v>
+      </c>
+      <c r="J48" t="n">
+        <v>20.941</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" t="n">
+        <v>802.689</v>
+      </c>
+      <c r="D49" t="n">
+        <v>133.266</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-83.398</v>
+      </c>
+      <c r="F49" t="n">
+        <v>83.81999999999999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>131.566</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-1.276</v>
+      </c>
+      <c r="I49" t="n">
+        <v>99.873</v>
+      </c>
+      <c r="J49" t="n">
+        <v>19.153</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" t="n">
+        <v>462.519</v>
+      </c>
+      <c r="D50" t="n">
+        <v>310.072</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-32.96</v>
+      </c>
+      <c r="F50" t="n">
+        <v>140.912</v>
+      </c>
+      <c r="G50" t="n">
+        <v>191.614</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-38.203</v>
+      </c>
+      <c r="I50" t="n">
+        <v>68.065</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-51.697</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" t="n">
+        <v>95.497</v>
+      </c>
+      <c r="D51" t="n">
+        <v>122.857</v>
+      </c>
+      <c r="E51" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="F51" t="n">
+        <v>115.31</v>
+      </c>
+      <c r="G51" t="n">
+        <v>148.599</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20.953</v>
+      </c>
+      <c r="I51" t="n">
+        <v>64.57299999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-44.001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" t="n">
+        <v>17.606</v>
+      </c>
+      <c r="D52" t="n">
+        <v>56.758</v>
+      </c>
+      <c r="E52" t="n">
+        <v>222.375</v>
+      </c>
+      <c r="F52" t="n">
+        <v>44.684</v>
+      </c>
+      <c r="G52" t="n">
+        <v>66.63</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17.393</v>
+      </c>
+      <c r="I52" t="n">
+        <v>60.636</v>
+      </c>
+      <c r="J52" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" t="n">
+        <v>144.908</v>
+      </c>
+      <c r="D53" t="n">
+        <v>55.916</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-61.413</v>
+      </c>
+      <c r="F53" t="n">
+        <v>107.43</v>
+      </c>
+      <c r="G53" t="n">
+        <v>160.925</v>
+      </c>
+      <c r="H53" t="n">
+        <v>187.797</v>
+      </c>
+      <c r="I53" t="n">
+        <v>59.643</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-44.482</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" t="n">
+        <v>160.382</v>
+      </c>
+      <c r="D54" t="n">
+        <v>27.601</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-82.791</v>
+      </c>
+      <c r="F54" t="n">
+        <v>34.181</v>
+      </c>
+      <c r="G54" t="n">
+        <v>57.051</v>
+      </c>
+      <c r="H54" t="n">
+        <v>106.701</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41.855</v>
+      </c>
+      <c r="J54" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" t="n">
+        <v>192.388</v>
+      </c>
+      <c r="D55" t="n">
+        <v>173.66</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-9.734</v>
+      </c>
+      <c r="F55" t="n">
+        <v>81.348</v>
+      </c>
+      <c r="G55" t="n">
+        <v>149.965</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-13.645</v>
+      </c>
+      <c r="I55" t="n">
+        <v>39.562</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-51.366</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" t="n">
+        <v>43.832</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-78.324</v>
+      </c>
+      <c r="F56" t="n">
+        <v>46.376</v>
+      </c>
+      <c r="G56" t="n">
+        <v>67.788</v>
+      </c>
+      <c r="H56" t="n">
+        <v>613.495</v>
+      </c>
+      <c r="I56" t="n">
+        <v>32.801</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-29.271</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C57" t="n">
+        <v>85.75700000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>75.438</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-12.032</v>
+      </c>
+      <c r="F57" t="n">
+        <v>37.683</v>
+      </c>
+      <c r="G57" t="n">
+        <v>56.273</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-25.406</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30.424</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-19.264</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9.084</v>
+      </c>
+      <c r="D58" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="E58" t="n">
+        <v>73.63500000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22.493</v>
+      </c>
+      <c r="G58" t="n">
+        <v>35.553</v>
+      </c>
+      <c r="H58" t="n">
+        <v>125.394</v>
+      </c>
+      <c r="I58" t="n">
+        <v>28.747</v>
+      </c>
+      <c r="J58" t="n">
+        <v>27.805</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.516</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26.186</v>
+      </c>
+      <c r="E59" t="n">
+        <v>644.855</v>
+      </c>
+      <c r="F59" t="n">
+        <v>21.972</v>
+      </c>
+      <c r="G59" t="n">
+        <v>32.832</v>
+      </c>
+      <c r="H59" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26.242</v>
+      </c>
+      <c r="J59" t="n">
+        <v>19.433</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="B60" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="E60" t="n">
+        <v>448.885</v>
+      </c>
+      <c r="F60" t="n">
+        <v>54.948</v>
+      </c>
+      <c r="G60" t="n">
+        <v>62.338</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5823.128</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10.087</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-81.643</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25.967</v>
+      </c>
+      <c r="D61" t="n">
+        <v>13.913</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-46.422</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="G61" t="n">
+        <v>13.135</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-5.594</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.367</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-42.926</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12.054</v>
+      </c>
+      <c r="D62" t="n">
+        <v>28.335</v>
+      </c>
+      <c r="E62" t="n">
+        <v>135.067</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.293</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.227</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-81.55200000000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-6.411</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.834</v>
+      </c>
+      <c r="H63" t="n">
+        <v>61.964</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J63" t="n">
+        <v>93.396</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E64" t="n">
+        <v>24.861</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.074</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-5.928</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-82.73</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="E65" t="n">
+        <v>19.765</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="H65" t="n">
+        <v>37.331</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-71.788</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-31.677</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-11.344</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" t="n">
+        <v>19.024</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A38:A39"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" width="11"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" width="11"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="11"/>
     <col bestFit="1" customWidth="1" max="10" min="10" width="10"/>
